--- a/biology/Zoologie/Ampedus/Ampedus.xlsx
+++ b/biology/Zoologie/Ampedus/Ampedus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ampedus est un genre d'insectes de l'ordre des coléoptères et de la famille des élatéridés (taupins).
 Son nom provient du grec αμπηδάω, αναπηδάω: ampēdáō, anapēdáō, je saute. En effet, comme tous les élatéridés ils échappent à leurs prédateurs en sautant à terre sur le dos, puis se redressent grâce à une rétraction musculaire puissante à l'articulation de leur pronotum, particulièrement mobile, et du mésothorax . 
@@ -512,7 +524,9 @@
           <t>Liste des espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ampedus (Ampedus) apicalis (Reitter, 1889)
 Ampedus (Ampedus) assingi Schimmel, 1996
@@ -600,9 +614,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (31 août 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (31 août 2014) :
 Ampedus balteatus
 Ampedus basalis
 Ampedus hypogastricus
